--- a/nhanvien/ds_thongke.xlsx
+++ b/nhanvien/ds_thongke.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>Mã khách hàng</t>
   </si>
@@ -92,6 +92,18 @@
     <t>ffghjhvzgfjyurt</t>
   </si>
   <si>
+    <t>LT08</t>
+  </si>
+  <si>
+    <t>Wax Lông aaaa</t>
+  </si>
+  <si>
+    <t>Giai đoạn 1</t>
+  </si>
+  <si>
+    <t>2018-06-28</t>
+  </si>
+  <si>
     <t>cccccccccccccc</t>
   </si>
   <si>
@@ -108,9 +120,6 @@
   </si>
   <si>
     <t>gfgdfgfdgdfgdfg</t>
-  </si>
-  <si>
-    <t>2018-06-28</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -564,22 +573,22 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -587,31 +596,31 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -619,25 +628,25 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
         <v>17</v>
@@ -666,10 +675,10 @@
         <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
         <v>17</v>
@@ -698,16 +707,16 @@
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
         <v>17</v>
       </c>
       <c r="I8" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -715,33 +724,65 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
       </c>
       <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
         <v>18</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>1</v>
       </c>
     </row>
